--- a/BillOfMaterials.xlsx
+++ b/BillOfMaterials.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mishaynaidoo/Desktop/Traffic-Monitoring-Using-Doppler-Radar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E787C-0A1B-CF4E-8998-3A92D798D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED6598-9DDD-4E49-B377-A9361BB26168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F4AD52E9-1DFF-B449-9B53-D448E7B4FA44}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{F4AD52E9-1DFF-B449-9B53-D448E7B4FA44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,14 +499,14 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>228.9</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f>C3*D3</f>
-        <v>316</v>
+        <v>457.8</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
